--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2114107.942686247</v>
+        <v>2113572.59980801</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>326.8753561036519</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>289.6951470172849</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>154.1656318418051</v>
+        <v>47.07677873158238</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.896053338104</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>317.5305373700298</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.77895054455875</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>82.76513478902802</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.896053338104</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1141,10 +1141,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>291.8075184743059</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>71.80950634292695</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>92.7180668259213</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.7683066075564</v>
+        <v>408.7683066075565</v>
       </c>
       <c r="C11" t="n">
         <v>420.4927799159087</v>
@@ -1378,7 +1378,7 @@
         <v>418.2824188047977</v>
       </c>
       <c r="E11" t="n">
-        <v>416.1687292207855</v>
+        <v>416.1687292207856</v>
       </c>
       <c r="F11" t="n">
         <v>410.3204871223821</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.2141487902237</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9580261631843</v>
+        <v>203.9580261631849</v>
       </c>
       <c r="U11" t="n">
-        <v>243.3501105489637</v>
+        <v>243.3501105489628</v>
       </c>
       <c r="V11" t="n">
         <v>345.7225123930095</v>
@@ -1438,7 +1438,7 @@
         <v>401.6827706139802</v>
       </c>
       <c r="Y11" t="n">
-        <v>390.9349942908408</v>
+        <v>390.9349942908409</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I13" t="n">
-        <v>72.53207139197579</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.985402631712009</v>
+        <v>4.985402631712053</v>
       </c>
       <c r="S13" t="n">
         <v>143.2373190996777</v>
       </c>
       <c r="T13" t="n">
-        <v>229.8720588817935</v>
+        <v>229.8720588817923</v>
       </c>
       <c r="U13" t="n">
         <v>262.3768239511401</v>
@@ -1590,7 +1590,7 @@
         <v>270.8176848757716</v>
       </c>
       <c r="W13" t="n">
-        <v>256.0378721970691</v>
+        <v>256.0378721970698</v>
       </c>
       <c r="X13" t="n">
         <v>229.6695689474194</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.7683066075564</v>
+        <v>408.7683066075565</v>
       </c>
       <c r="C14" t="n">
         <v>420.4927799159087</v>
@@ -1615,7 +1615,7 @@
         <v>418.2824188047977</v>
       </c>
       <c r="E14" t="n">
-        <v>416.1687292207855</v>
+        <v>416.1687292207856</v>
       </c>
       <c r="F14" t="n">
         <v>410.3204871223821</v>
@@ -1624,7 +1624,7 @@
         <v>383.969323206856</v>
       </c>
       <c r="H14" t="n">
-        <v>271.4726823714371</v>
+        <v>271.472682371439</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.2141487902246</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9580261631843</v>
+        <v>203.9580261631844</v>
       </c>
       <c r="U14" t="n">
-        <v>243.3501105489619</v>
+        <v>243.3501105489622</v>
       </c>
       <c r="V14" t="n">
         <v>345.7225123930095</v>
@@ -1675,7 +1675,7 @@
         <v>401.6827706139802</v>
       </c>
       <c r="Y14" t="n">
-        <v>390.9349942908408</v>
+        <v>390.9349942908409</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1785,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I16" t="n">
-        <v>72.53207139197579</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.985402631714032</v>
+        <v>4.985402631712053</v>
       </c>
       <c r="S16" t="n">
         <v>143.2373190996777</v>
@@ -1827,7 +1827,7 @@
         <v>270.8176848757716</v>
       </c>
       <c r="W16" t="n">
-        <v>256.0378721970691</v>
+        <v>256.0378721970698</v>
       </c>
       <c r="X16" t="n">
         <v>229.6695689474194</v>
@@ -1852,7 +1852,7 @@
         <v>418.2824188047977</v>
       </c>
       <c r="E17" t="n">
-        <v>416.1687292207855</v>
+        <v>416.1687292207856</v>
       </c>
       <c r="F17" t="n">
         <v>410.3204871223821</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.2141487902246</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T17" t="n">
         <v>203.9580261631844</v>
@@ -2004,7 +2004,7 @@
         <v>176.632164359295</v>
       </c>
       <c r="C19" t="n">
-        <v>157.5678262291051</v>
+        <v>157.5678262291053</v>
       </c>
       <c r="D19" t="n">
         <v>150.9509446979903</v>
@@ -2022,7 +2022,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I19" t="n">
-        <v>72.53207139197664</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.985402631712046</v>
+        <v>4.985402631712053</v>
       </c>
       <c r="S19" t="n">
         <v>143.2373190996777</v>
@@ -2089,7 +2089,7 @@
         <v>418.2824188047977</v>
       </c>
       <c r="E20" t="n">
-        <v>416.1687292207855</v>
+        <v>416.1687292207865</v>
       </c>
       <c r="F20" t="n">
         <v>410.3204871223821</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.21414879022551</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T20" t="n">
         <v>203.9580261631844</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.632164359295</v>
+        <v>176.6321643592954</v>
       </c>
       <c r="C22" t="n">
         <v>157.5678262291051</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.985402631712049</v>
+        <v>4.985402631712054</v>
       </c>
       <c r="S22" t="n">
         <v>143.2373190996777</v>
@@ -2298,7 +2298,7 @@
         <v>262.3768239511401</v>
       </c>
       <c r="V22" t="n">
-        <v>270.8176848757728</v>
+        <v>270.8176848757716</v>
       </c>
       <c r="W22" t="n">
         <v>256.0378721970692</v>
@@ -2326,7 +2326,7 @@
         <v>418.2824188047977</v>
       </c>
       <c r="E23" t="n">
-        <v>416.1687292207855</v>
+        <v>416.1687292207865</v>
       </c>
       <c r="F23" t="n">
         <v>410.3204871223821</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.21414879022375</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T23" t="n">
         <v>203.9580261631844</v>
       </c>
       <c r="U23" t="n">
-        <v>243.3501105489637</v>
+        <v>243.3501105489622</v>
       </c>
       <c r="V23" t="n">
         <v>345.7225123930095</v>
@@ -2490,13 +2490,13 @@
         <v>161.6717153253591</v>
       </c>
       <c r="G25" t="n">
-        <v>150.601486095899</v>
+        <v>150.6014860958989</v>
       </c>
       <c r="H25" t="n">
         <v>124.6515700213292</v>
       </c>
       <c r="I25" t="n">
-        <v>72.53207139197586</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.985402631712049</v>
+        <v>4.985402631712054</v>
       </c>
       <c r="S25" t="n">
         <v>143.2373190996777</v>
@@ -2608,10 +2608,10 @@
         <v>79.48241696272596</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2262943356866</v>
+        <v>217.226294335687</v>
       </c>
       <c r="U26" t="n">
-        <v>256.618378721465</v>
+        <v>256.6183787214644</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2718,13 +2718,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>108.6334080858411</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.8697542684012</v>
@@ -2733,7 +2733,7 @@
         <v>137.9198381938314</v>
       </c>
       <c r="I28" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>18.25367080421426</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>156.50558727218</v>
       </c>
       <c r="T28" t="n">
         <v>243.1403270542945</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>109.4855997947605</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2967,10 +2967,10 @@
         <v>163.8697542684012</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>45.11930384112964</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S31" t="n">
-        <v>82.15330798771313</v>
+        <v>156.50558727218</v>
       </c>
       <c r="T31" t="n">
         <v>243.1403270542945</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6450921236423</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3046,7 +3046,7 @@
         <v>397.2375913793582</v>
       </c>
       <c r="H32" t="n">
-        <v>284.7409505439396</v>
+        <v>284.7409505439393</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>15.60405013318048</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8697542684012</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9198381938314</v>
+        <v>97.29448244311592</v>
       </c>
       <c r="I34" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.2262943356866</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6183787214644</v>
+        <v>256.618378721465</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>135.8202489130531</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S37" t="n">
         <v>156.50558727218</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>255.3196363750687</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.48241696272596</v>
+        <v>79.48241696272676</v>
       </c>
       <c r="T38" t="n">
         <v>217.2262943356866</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6183787214644</v>
+        <v>256.6183787214641</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>22.5703902663865</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.8697542684012</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S40" t="n">
-        <v>82.15330798771313</v>
+        <v>156.50558727218</v>
       </c>
       <c r="T40" t="n">
         <v>243.1403270542945</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.48241696272594</v>
+        <v>79.48241696272596</v>
       </c>
       <c r="T41" t="n">
         <v>217.2262943356866</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>44.41039908641375</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,10 +3915,10 @@
         <v>163.8697542684012</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S43" t="n">
         <v>156.50558727218</v>
       </c>
       <c r="T43" t="n">
-        <v>168.7880477698278</v>
+        <v>243.1403270542945</v>
       </c>
       <c r="U43" t="n">
         <v>275.6450921236423</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.48241696272676</v>
+        <v>79.48241696272596</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2262943356866</v>
+        <v>217.226294335687</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6183787214644</v>
+        <v>256.618378721465</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>15.60405013318048</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8697542684012</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S46" t="n">
-        <v>82.15330798771313</v>
+        <v>156.50558727218</v>
       </c>
       <c r="T46" t="n">
         <v>243.1403270542945</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>958.9147199317615</v>
+        <v>846.6806259663152</v>
       </c>
       <c r="C2" t="n">
-        <v>924.8126511555888</v>
+        <v>418.0989517035836</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1404.562069456897</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1389.460010076612</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.1738863762653</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.5269815952424</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="C4" t="n">
-        <v>760.5269815952424</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="D4" t="n">
-        <v>760.5269815952424</v>
+        <v>81.49597035068146</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>247.3739631491588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>945.0851728516207</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D5" t="n">
         <v>87.92182432615731</v>
@@ -4567,19 +4567,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4606,13 +4606,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1375.630462996471</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>967.3443392961244</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4646,22 +4646,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760.0392898402852</v>
+        <v>376.2633838676462</v>
       </c>
       <c r="C7" t="n">
-        <v>587.4775783235101</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D7" t="n">
-        <v>421.5995855250328</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E7" t="n">
-        <v>251.8415817757701</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>75.13452773752627</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>1179.277579245164</v>
+        <v>621.6551385342336</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.277579245164</v>
+        <v>376.2633838676462</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.8579085592723</v>
+        <v>376.2633838676462</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>956.7810113893163</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>922.6789426131436</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
         <v>34.36045797446834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4843,13 +4843,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1402.428360914452</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>983.2858974937626</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>979.0401778338201</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
         <v>1159.957753041174</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.4397056785397</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V10" t="n">
-        <v>1303.677995083419</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W10" t="n">
-        <v>1303.677995083419</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X10" t="n">
-        <v>1303.677995083419</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.258324397527</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2017.714787002829</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.207293260609</v>
+        <v>1595.207293260608</v>
       </c>
       <c r="E11" t="n">
         <v>1174.834839502239</v>
       </c>
       <c r="F11" t="n">
-        <v>760.3697009947828</v>
+        <v>760.3697009947823</v>
       </c>
       <c r="G11" t="n">
         <v>372.5218997757353</v>
@@ -5041,16 +5041,16 @@
         <v>103.4809398549977</v>
       </c>
       <c r="J11" t="n">
-        <v>319.3174277498031</v>
+        <v>551.025267101563</v>
       </c>
       <c r="K11" t="n">
-        <v>1172.086703998191</v>
+        <v>1403.794543349951</v>
       </c>
       <c r="L11" t="n">
-        <v>2269.997048981058</v>
+        <v>1426.644922079959</v>
       </c>
       <c r="M11" t="n">
-        <v>2295.422498114816</v>
+        <v>1452.070371213717</v>
       </c>
       <c r="N11" t="n">
         <v>2321.259357597047</v>
@@ -5071,7 +5071,7 @@
         <v>4848.470476299816</v>
       </c>
       <c r="T11" t="n">
-        <v>4642.452268054176</v>
+        <v>4642.452268054175</v>
       </c>
       <c r="U11" t="n">
         <v>4396.644075580475</v>
@@ -5080,7 +5080,7 @@
         <v>4047.429416597637</v>
       </c>
       <c r="W11" t="n">
-        <v>3655.976253092007</v>
+        <v>3655.976253092006</v>
       </c>
       <c r="X11" t="n">
         <v>3250.236080754653</v>
@@ -5117,31 +5117,31 @@
         <v>98.30706909751599</v>
       </c>
       <c r="I12" t="n">
-        <v>100.9744967173473</v>
+        <v>127.0381698778049</v>
       </c>
       <c r="J12" t="n">
-        <v>108.2941219859826</v>
+        <v>458.9161201126525</v>
       </c>
       <c r="K12" t="n">
-        <v>120.80452742284</v>
+        <v>471.4265255495099</v>
       </c>
       <c r="L12" t="n">
-        <v>137.626311412617</v>
+        <v>488.248309539287</v>
       </c>
       <c r="M12" t="n">
-        <v>1354.176291494377</v>
+        <v>507.8785380230649</v>
       </c>
       <c r="N12" t="n">
-        <v>1374.326073714553</v>
+        <v>528.0283202432404</v>
       </c>
       <c r="O12" t="n">
-        <v>1729.418330739567</v>
+        <v>546.4614343952138</v>
       </c>
       <c r="P12" t="n">
-        <v>1744.212529938575</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q12" t="n">
-        <v>1754.102060314062</v>
+        <v>1636.929282219722</v>
       </c>
       <c r="R12" t="n">
         <v>1758.912264821875</v>
@@ -5178,37 +5178,37 @@
         <v>1080.900775462088</v>
       </c>
       <c r="C13" t="n">
-        <v>921.7413550286485</v>
+        <v>921.7413550286487</v>
       </c>
       <c r="D13" t="n">
-        <v>769.2656533135068</v>
+        <v>769.265653313507</v>
       </c>
       <c r="E13" t="n">
-        <v>612.9099406475797</v>
+        <v>612.9099406475798</v>
       </c>
       <c r="F13" t="n">
-        <v>449.6051776926715</v>
+        <v>449.6051776926716</v>
       </c>
       <c r="G13" t="n">
-        <v>297.4824644644907</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H13" t="n">
-        <v>171.5717876752693</v>
+        <v>171.5717876752694</v>
       </c>
       <c r="I13" t="n">
         <v>98.30706909751599</v>
       </c>
       <c r="J13" t="n">
-        <v>202.6144374193492</v>
+        <v>202.6144374193491</v>
       </c>
       <c r="K13" t="n">
-        <v>498.0547045837641</v>
+        <v>498.054704583764</v>
       </c>
       <c r="L13" t="n">
-        <v>939.0567444586462</v>
+        <v>939.056744458646</v>
       </c>
       <c r="M13" t="n">
-        <v>1421.857699002672</v>
+        <v>1421.857699002671</v>
       </c>
       <c r="N13" t="n">
         <v>1887.19149616568</v>
@@ -5220,31 +5220,31 @@
         <v>2697.675097069601</v>
       </c>
       <c r="Q13" t="n">
-        <v>2884.442291371593</v>
+        <v>2884.442291371592</v>
       </c>
       <c r="R13" t="n">
-        <v>2879.40653113754</v>
+        <v>2879.406531137539</v>
       </c>
       <c r="S13" t="n">
         <v>2734.722370430794</v>
       </c>
       <c r="T13" t="n">
-        <v>2502.528371560296</v>
+        <v>2502.528371560297</v>
       </c>
       <c r="U13" t="n">
-        <v>2237.501276660154</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V13" t="n">
-        <v>1963.94805961392</v>
+        <v>1963.948059613921</v>
       </c>
       <c r="W13" t="n">
-        <v>1705.323946283547</v>
+        <v>1705.323946283548</v>
       </c>
       <c r="X13" t="n">
-        <v>1473.334482700295</v>
+        <v>1473.334482700296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1259.317103097739</v>
+        <v>1259.31710309774</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2442.454968736069</v>
+        <v>2442.454968736071</v>
       </c>
       <c r="C14" t="n">
-        <v>2017.714787002827</v>
+        <v>2017.71478700283</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.207293260607</v>
+        <v>1595.20729326061</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.834839502238</v>
+        <v>1174.83483950224</v>
       </c>
       <c r="F14" t="n">
-        <v>760.3697009947816</v>
+        <v>760.3697009947837</v>
       </c>
       <c r="G14" t="n">
-        <v>372.5218997757353</v>
+        <v>372.5218997757372</v>
       </c>
       <c r="H14" t="n">
-        <v>98.30706909751598</v>
+        <v>98.30706909751599</v>
       </c>
       <c r="I14" t="n">
-        <v>103.4809398549976</v>
+        <v>103.4809398549977</v>
       </c>
       <c r="J14" t="n">
         <v>551.025267101563</v>
       </c>
       <c r="K14" t="n">
-        <v>569.4442513917727</v>
+        <v>1403.794543349951</v>
       </c>
       <c r="L14" t="n">
-        <v>1667.35459637464</v>
+        <v>2501.704888332818</v>
       </c>
       <c r="M14" t="n">
-        <v>2849.827880718949</v>
+        <v>2527.130337466576</v>
       </c>
       <c r="N14" t="n">
-        <v>4001.395723637627</v>
+        <v>2552.967196948807</v>
       </c>
       <c r="O14" t="n">
-        <v>4025.792737399619</v>
+        <v>3494.990102682402</v>
       </c>
       <c r="P14" t="n">
-        <v>4174.968199563739</v>
+        <v>4344.122264316797</v>
       </c>
       <c r="Q14" t="n">
-        <v>4737.103655744473</v>
+        <v>4906.25772049753</v>
       </c>
       <c r="R14" t="n">
-        <v>4915.353454875799</v>
+        <v>4915.3534548758</v>
       </c>
       <c r="S14" t="n">
-        <v>4848.470476299814</v>
+        <v>4848.470476299816</v>
       </c>
       <c r="T14" t="n">
-        <v>4642.452268054174</v>
+        <v>4642.452268054176</v>
       </c>
       <c r="U14" t="n">
-        <v>4396.644075580475</v>
+        <v>4396.644075580477</v>
       </c>
       <c r="V14" t="n">
-        <v>4047.429416597637</v>
+        <v>4047.429416597639</v>
       </c>
       <c r="W14" t="n">
-        <v>3655.976253092006</v>
+        <v>3655.976253092008</v>
       </c>
       <c r="X14" t="n">
-        <v>3250.236080754652</v>
+        <v>3250.236080754654</v>
       </c>
       <c r="Y14" t="n">
-        <v>2855.352248137641</v>
+        <v>2855.352248137643</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>139.2792900678151</v>
       </c>
       <c r="H15" t="n">
-        <v>98.30706909751598</v>
+        <v>98.30706909751599</v>
       </c>
       <c r="I15" t="n">
         <v>127.0381698778049</v>
@@ -5360,22 +5360,22 @@
         <v>458.9161201126525</v>
       </c>
       <c r="K15" t="n">
-        <v>1152.160045619887</v>
+        <v>471.4265255495099</v>
       </c>
       <c r="L15" t="n">
-        <v>1168.981829609664</v>
+        <v>488.248309539287</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.612058093442</v>
+        <v>507.8785380230649</v>
       </c>
       <c r="N15" t="n">
-        <v>1208.761840313618</v>
+        <v>528.0283202432404</v>
       </c>
       <c r="O15" t="n">
-        <v>1227.194954465591</v>
+        <v>546.4614343952138</v>
       </c>
       <c r="P15" t="n">
-        <v>1241.989153664599</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q15" t="n">
         <v>1636.929282219722</v>
@@ -5415,37 +5415,37 @@
         <v>1080.900775462088</v>
       </c>
       <c r="C16" t="n">
-        <v>921.7413550286485</v>
+        <v>921.7413550286487</v>
       </c>
       <c r="D16" t="n">
-        <v>769.2656533135068</v>
+        <v>769.265653313507</v>
       </c>
       <c r="E16" t="n">
-        <v>612.9099406475797</v>
+        <v>612.9099406475798</v>
       </c>
       <c r="F16" t="n">
-        <v>449.6051776926715</v>
+        <v>449.6051776926716</v>
       </c>
       <c r="G16" t="n">
-        <v>297.4824644644907</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H16" t="n">
-        <v>171.5717876752693</v>
+        <v>171.5717876752694</v>
       </c>
       <c r="I16" t="n">
-        <v>98.30706909751598</v>
+        <v>98.30706909751599</v>
       </c>
       <c r="J16" t="n">
-        <v>202.6144374193492</v>
+        <v>202.6144374193491</v>
       </c>
       <c r="K16" t="n">
         <v>498.054704583764</v>
       </c>
       <c r="L16" t="n">
-        <v>939.0567444586462</v>
+        <v>939.056744458646</v>
       </c>
       <c r="M16" t="n">
-        <v>1421.857699002672</v>
+        <v>1421.857699002671</v>
       </c>
       <c r="N16" t="n">
         <v>1887.19149616568</v>
@@ -5457,31 +5457,31 @@
         <v>2697.675097069601</v>
       </c>
       <c r="Q16" t="n">
-        <v>2884.442291371593</v>
+        <v>2884.442291371592</v>
       </c>
       <c r="R16" t="n">
-        <v>2879.406531137538</v>
+        <v>2879.406531137539</v>
       </c>
       <c r="S16" t="n">
-        <v>2734.722370430793</v>
+        <v>2734.722370430794</v>
       </c>
       <c r="T16" t="n">
-        <v>2502.528371560296</v>
+        <v>2502.528371560297</v>
       </c>
       <c r="U16" t="n">
-        <v>2237.501276660154</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V16" t="n">
-        <v>1963.94805961392</v>
+        <v>1963.948059613921</v>
       </c>
       <c r="W16" t="n">
-        <v>1705.323946283547</v>
+        <v>1705.323946283548</v>
       </c>
       <c r="X16" t="n">
-        <v>1473.334482700295</v>
+        <v>1473.334482700296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1259.317103097739</v>
+        <v>1259.31710309774</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2442.454968736068</v>
       </c>
       <c r="C17" t="n">
-        <v>2017.714787002827</v>
+        <v>2017.714787002828</v>
       </c>
       <c r="D17" t="n">
         <v>1595.207293260607</v>
@@ -5597,22 +5597,22 @@
         <v>458.9161201126525</v>
       </c>
       <c r="K18" t="n">
-        <v>717.4874773203251</v>
+        <v>996.4717051674478</v>
       </c>
       <c r="L18" t="n">
-        <v>734.3092613101022</v>
+        <v>1013.293489157225</v>
       </c>
       <c r="M18" t="n">
-        <v>753.9394897938801</v>
+        <v>1032.923717641003</v>
       </c>
       <c r="N18" t="n">
-        <v>774.0892720140556</v>
+        <v>1053.073499861178</v>
       </c>
       <c r="O18" t="n">
-        <v>792.5223861660289</v>
+        <v>1071.506614013152</v>
       </c>
       <c r="P18" t="n">
-        <v>1627.039751844236</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q18" t="n">
         <v>1636.929282219722</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1080.900775462089</v>
+        <v>1080.900775462088</v>
       </c>
       <c r="C19" t="n">
-        <v>921.7413550286494</v>
+        <v>921.7413550286487</v>
       </c>
       <c r="D19" t="n">
-        <v>769.2656533135078</v>
+        <v>769.265653313507</v>
       </c>
       <c r="E19" t="n">
-        <v>612.9099406475806</v>
+        <v>612.9099406475798</v>
       </c>
       <c r="F19" t="n">
-        <v>449.6051776926724</v>
+        <v>449.6051776926716</v>
       </c>
       <c r="G19" t="n">
-        <v>297.4824644644916</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H19" t="n">
-        <v>171.5717876752702</v>
+        <v>171.5717876752694</v>
       </c>
       <c r="I19" t="n">
         <v>98.30706909751598</v>
@@ -5676,13 +5676,13 @@
         <v>202.6144374193491</v>
       </c>
       <c r="K19" t="n">
-        <v>498.054704583764</v>
+        <v>498.0547045837639</v>
       </c>
       <c r="L19" t="n">
         <v>939.056744458646</v>
       </c>
       <c r="M19" t="n">
-        <v>1421.857699002672</v>
+        <v>1421.857699002671</v>
       </c>
       <c r="N19" t="n">
         <v>1887.19149616568</v>
@@ -5694,10 +5694,10 @@
         <v>2697.675097069601</v>
       </c>
       <c r="Q19" t="n">
-        <v>2884.442291371593</v>
+        <v>2884.442291371592</v>
       </c>
       <c r="R19" t="n">
-        <v>2879.40653113754</v>
+        <v>2879.406531137539</v>
       </c>
       <c r="S19" t="n">
         <v>2734.722370430794</v>
@@ -5706,19 +5706,19 @@
         <v>2502.528371560297</v>
       </c>
       <c r="U19" t="n">
-        <v>2237.501276660156</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V19" t="n">
-        <v>1963.948059613922</v>
+        <v>1963.948059613921</v>
       </c>
       <c r="W19" t="n">
-        <v>1705.323946283549</v>
+        <v>1705.323946283548</v>
       </c>
       <c r="X19" t="n">
-        <v>1473.334482700297</v>
+        <v>1473.334482700296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1259.317103097741</v>
+        <v>1259.31710309774</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2442.454968736069</v>
+        <v>2442.45496873607</v>
       </c>
       <c r="C20" t="n">
-        <v>2017.714787002828</v>
+        <v>2017.714787002829</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.207293260608</v>
+        <v>1595.207293260609</v>
       </c>
       <c r="E20" t="n">
         <v>1174.834839502239</v>
       </c>
       <c r="F20" t="n">
-        <v>760.3697009947817</v>
+        <v>760.3697009947819</v>
       </c>
       <c r="G20" t="n">
         <v>372.5218997757353</v>
@@ -5752,52 +5752,52 @@
         <v>103.4809398549976</v>
       </c>
       <c r="J20" t="n">
-        <v>551.0252671015629</v>
+        <v>551.025267101563</v>
       </c>
       <c r="K20" t="n">
-        <v>1403.794543349951</v>
+        <v>1341.240768751246</v>
       </c>
       <c r="L20" t="n">
-        <v>1426.644922079959</v>
+        <v>2439.151113734114</v>
       </c>
       <c r="M20" t="n">
-        <v>2609.118206424267</v>
+        <v>2464.576562867871</v>
       </c>
       <c r="N20" t="n">
-        <v>3760.686049342945</v>
+        <v>2490.413422350102</v>
       </c>
       <c r="O20" t="n">
-        <v>3785.083063104938</v>
+        <v>3494.990102682401</v>
       </c>
       <c r="P20" t="n">
-        <v>4174.968199563739</v>
+        <v>4344.122264316796</v>
       </c>
       <c r="Q20" t="n">
-        <v>4737.103655744473</v>
+        <v>4906.25772049753</v>
       </c>
       <c r="R20" t="n">
         <v>4915.353454875799</v>
       </c>
       <c r="S20" t="n">
-        <v>4848.470476299814</v>
+        <v>4848.470476299815</v>
       </c>
       <c r="T20" t="n">
-        <v>4642.452268054173</v>
+        <v>4642.452268054175</v>
       </c>
       <c r="U20" t="n">
-        <v>4396.644075580474</v>
+        <v>4396.644075580476</v>
       </c>
       <c r="V20" t="n">
-        <v>4047.429416597637</v>
+        <v>4047.429416597638</v>
       </c>
       <c r="W20" t="n">
-        <v>3655.976253092006</v>
+        <v>3655.976253092007</v>
       </c>
       <c r="X20" t="n">
-        <v>3250.236080754652</v>
+        <v>3250.236080754653</v>
       </c>
       <c r="Y20" t="n">
-        <v>2855.352248137641</v>
+        <v>2855.352248137642</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>98.30706909751598</v>
       </c>
       <c r="I21" t="n">
-        <v>100.9744967173473</v>
+        <v>127.0381698778049</v>
       </c>
       <c r="J21" t="n">
-        <v>108.2941219859826</v>
+        <v>458.9161201126525</v>
       </c>
       <c r="K21" t="n">
-        <v>120.8045274228399</v>
+        <v>996.4717051674478</v>
       </c>
       <c r="L21" t="n">
-        <v>137.626311412617</v>
+        <v>1013.293489157225</v>
       </c>
       <c r="M21" t="n">
-        <v>377.2624584114938</v>
+        <v>1032.923717641003</v>
       </c>
       <c r="N21" t="n">
-        <v>1593.812438493254</v>
+        <v>1053.073499861178</v>
       </c>
       <c r="O21" t="n">
-        <v>1612.245552645227</v>
+        <v>1071.506614013152</v>
       </c>
       <c r="P21" t="n">
-        <v>1627.039751844236</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q21" t="n">
         <v>1636.929282219722</v>
@@ -5919,7 +5919,7 @@
         <v>939.056744458646</v>
       </c>
       <c r="M22" t="n">
-        <v>1421.857699002672</v>
+        <v>1421.857699002671</v>
       </c>
       <c r="N22" t="n">
         <v>1887.19149616568</v>
@@ -5931,10 +5931,10 @@
         <v>2697.675097069601</v>
       </c>
       <c r="Q22" t="n">
-        <v>2884.442291371593</v>
+        <v>2884.442291371592</v>
       </c>
       <c r="R22" t="n">
-        <v>2879.40653113754</v>
+        <v>2879.406531137539</v>
       </c>
       <c r="S22" t="n">
         <v>2734.722370430794</v>
@@ -5943,7 +5943,7 @@
         <v>2502.528371560297</v>
       </c>
       <c r="U22" t="n">
-        <v>2237.501276660156</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V22" t="n">
         <v>1963.948059613921</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2442.454968736069</v>
+        <v>2442.45496873607</v>
       </c>
       <c r="C23" t="n">
-        <v>2017.714787002828</v>
+        <v>2017.714787002829</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.207293260608</v>
+        <v>1595.207293260609</v>
       </c>
       <c r="E23" t="n">
         <v>1174.834839502239</v>
       </c>
       <c r="F23" t="n">
-        <v>760.3697009947817</v>
+        <v>760.3697009947819</v>
       </c>
       <c r="G23" t="n">
         <v>372.5218997757353</v>
@@ -5989,16 +5989,16 @@
         <v>103.4809398549976</v>
       </c>
       <c r="J23" t="n">
-        <v>551.0252671015629</v>
+        <v>551.025267101563</v>
       </c>
       <c r="K23" t="n">
-        <v>1121.415686814602</v>
+        <v>1403.794543349951</v>
       </c>
       <c r="L23" t="n">
-        <v>1144.26606554461</v>
+        <v>1426.644922079959</v>
       </c>
       <c r="M23" t="n">
-        <v>1169.691514678368</v>
+        <v>1452.070371213717</v>
       </c>
       <c r="N23" t="n">
         <v>2321.259357597046</v>
@@ -6022,19 +6022,19 @@
         <v>4642.452268054175</v>
       </c>
       <c r="U23" t="n">
-        <v>4396.644075580474</v>
+        <v>4396.644075580476</v>
       </c>
       <c r="V23" t="n">
-        <v>4047.429416597637</v>
+        <v>4047.429416597638</v>
       </c>
       <c r="W23" t="n">
-        <v>3655.976253092006</v>
+        <v>3655.976253092007</v>
       </c>
       <c r="X23" t="n">
-        <v>3250.236080754652</v>
+        <v>3250.236080754653</v>
       </c>
       <c r="Y23" t="n">
-        <v>2855.352248137641</v>
+        <v>2855.352248137642</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>98.30706909751598</v>
       </c>
       <c r="I24" t="n">
-        <v>100.9744967173473</v>
+        <v>127.0381698778049</v>
       </c>
       <c r="J24" t="n">
-        <v>108.2941219859826</v>
+        <v>458.9161201126525</v>
       </c>
       <c r="K24" t="n">
-        <v>120.8045274228399</v>
+        <v>471.4265255495098</v>
       </c>
       <c r="L24" t="n">
-        <v>137.626311412617</v>
+        <v>488.2483095392869</v>
       </c>
       <c r="M24" t="n">
-        <v>157.2565398963949</v>
+        <v>507.8785380230649</v>
       </c>
       <c r="N24" t="n">
-        <v>177.4063221165705</v>
+        <v>528.0283202432404</v>
       </c>
       <c r="O24" t="n">
-        <v>251.7834475339534</v>
+        <v>546.4614343952138</v>
       </c>
       <c r="P24" t="n">
         <v>1086.30081321216</v>
@@ -6147,7 +6147,7 @@
         <v>98.30706909751598</v>
       </c>
       <c r="J25" t="n">
-        <v>202.6144374193492</v>
+        <v>202.6144374193491</v>
       </c>
       <c r="K25" t="n">
         <v>498.054704583764</v>
@@ -6156,7 +6156,7 @@
         <v>939.056744458646</v>
       </c>
       <c r="M25" t="n">
-        <v>1421.857699002672</v>
+        <v>1421.857699002671</v>
       </c>
       <c r="N25" t="n">
         <v>1887.19149616568</v>
@@ -6171,7 +6171,7 @@
         <v>2884.442291371592</v>
       </c>
       <c r="R25" t="n">
-        <v>2879.406531137538</v>
+        <v>2879.406531137539</v>
       </c>
       <c r="S25" t="n">
         <v>2734.722370430793</v>
@@ -6180,7 +6180,7 @@
         <v>2502.528371560296</v>
       </c>
       <c r="U25" t="n">
-        <v>2237.501276660154</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V25" t="n">
         <v>1963.948059613921</v>
@@ -6205,16 +6205,16 @@
         <v>2526.697941259893</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.555468443315</v>
+        <v>2088.555468443317</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.64568361776</v>
+        <v>1652.645683617761</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.870938776055</v>
+        <v>1218.870938776056</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0035091852625</v>
+        <v>791.0035091852642</v>
       </c>
       <c r="G26" t="n">
         <v>389.7534168828811</v>
@@ -6226,28 +6226,28 @@
         <v>107.3101658788078</v>
       </c>
       <c r="J26" t="n">
-        <v>119.5998056724553</v>
+        <v>554.8544931253731</v>
       </c>
       <c r="K26" t="n">
-        <v>138.0187899626649</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L26" t="n">
-        <v>1235.929134945532</v>
+        <v>2461.458350171565</v>
       </c>
       <c r="M26" t="n">
-        <v>2418.402419289841</v>
+        <v>2486.883799305323</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.970262208519</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O26" t="n">
-        <v>4574.546942540818</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P26" t="n">
-        <v>5082.082351465899</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q26" t="n">
-        <v>5097.719021688037</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R26" t="n">
         <v>5106.814756066307</v>
@@ -6259,19 +6259,19 @@
         <v>4807.108987078012</v>
       </c>
       <c r="U26" t="n">
-        <v>4547.898503520976</v>
+        <v>4547.898503520977</v>
       </c>
       <c r="V26" t="n">
-        <v>4185.281553454803</v>
+        <v>4185.281553454804</v>
       </c>
       <c r="W26" t="n">
-        <v>3780.426098865836</v>
+        <v>3780.426098865837</v>
       </c>
       <c r="X26" t="n">
-        <v>3361.283635445147</v>
+        <v>3361.283635445148</v>
       </c>
       <c r="Y26" t="n">
-        <v>2952.9975117448</v>
+        <v>2952.997511744801</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>462.7453461364627</v>
       </c>
       <c r="K27" t="n">
-        <v>475.25575157332</v>
+        <v>1000.300931191258</v>
       </c>
       <c r="L27" t="n">
-        <v>492.0775355630972</v>
+        <v>1017.122715181035</v>
       </c>
       <c r="M27" t="n">
-        <v>511.7077640468751</v>
+        <v>1036.752943664813</v>
       </c>
       <c r="N27" t="n">
-        <v>531.8575462670507</v>
+        <v>1056.902725884989</v>
       </c>
       <c r="O27" t="n">
-        <v>550.290660419024</v>
+        <v>1075.335840036962</v>
       </c>
       <c r="P27" t="n">
         <v>1090.13003923597</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1178.546039069247</v>
+        <v>859.0246978096607</v>
       </c>
       <c r="C28" t="n">
-        <v>1005.984327552472</v>
+        <v>686.4629862928856</v>
       </c>
       <c r="D28" t="n">
-        <v>840.106334753995</v>
+        <v>576.7322710546623</v>
       </c>
       <c r="E28" t="n">
-        <v>670.3483310047324</v>
+        <v>406.9742673053996</v>
       </c>
       <c r="F28" t="n">
-        <v>493.6412769664885</v>
+        <v>406.9742673053996</v>
       </c>
       <c r="G28" t="n">
-        <v>328.1162726549721</v>
+        <v>241.4492629938832</v>
       </c>
       <c r="H28" t="n">
-        <v>188.8033047824151</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I28" t="n">
         <v>102.1362951213262</v>
@@ -6411,25 +6411,25 @@
         <v>2764.748782151796</v>
       </c>
       <c r="S28" t="n">
-        <v>2764.748782151796</v>
+        <v>2606.662330361715</v>
       </c>
       <c r="T28" t="n">
-        <v>2519.152492197963</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="U28" t="n">
-        <v>2240.723106214486</v>
+        <v>2082.636654424405</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.767598084916</v>
+        <v>1795.681146294836</v>
       </c>
       <c r="W28" t="n">
-        <v>1843.176083140714</v>
+        <v>1523.654741881127</v>
       </c>
       <c r="X28" t="n">
-        <v>1597.784328474126</v>
+        <v>1278.26298721454</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.364657788235</v>
+        <v>1050.843316528648</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.697941259893</v>
+        <v>2526.697941259892</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.555468443316</v>
+        <v>2088.555468443315</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.64568361776</v>
+        <v>1652.645683617759</v>
       </c>
       <c r="E29" t="n">
         <v>1218.870938776055</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0035091852629</v>
+        <v>791.0035091852628</v>
       </c>
       <c r="G29" t="n">
-        <v>389.7534168828811</v>
+        <v>389.7534168828806</v>
       </c>
       <c r="H29" t="n">
         <v>102.1362951213261</v>
@@ -6466,25 +6466,25 @@
         <v>119.5998056724553</v>
       </c>
       <c r="K29" t="n">
-        <v>624.731912086746</v>
+        <v>972.3690819208429</v>
       </c>
       <c r="L29" t="n">
-        <v>1722.642257069613</v>
+        <v>2070.27942690371</v>
       </c>
       <c r="M29" t="n">
-        <v>2905.115541413922</v>
+        <v>2486.883799305322</v>
       </c>
       <c r="N29" t="n">
-        <v>4056.6833843326</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O29" t="n">
-        <v>5061.260064664899</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P29" t="n">
-        <v>5082.082351465898</v>
+        <v>4366.429500754246</v>
       </c>
       <c r="Q29" t="n">
-        <v>5097.719021688036</v>
+        <v>4928.56495693498</v>
       </c>
       <c r="R29" t="n">
         <v>5106.814756066306</v>
@@ -6496,19 +6496,19 @@
         <v>4807.108987078011</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.898503520976</v>
+        <v>4547.898503520975</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.281553454803</v>
+        <v>4185.281553454802</v>
       </c>
       <c r="W29" t="n">
-        <v>3780.426098865836</v>
+        <v>3780.426098865835</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.283635445147</v>
+        <v>3361.283635445146</v>
       </c>
       <c r="Y29" t="n">
-        <v>2952.9975117448</v>
+        <v>2952.997511744799</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.5660615356014</v>
+        <v>1137.454083793138</v>
       </c>
       <c r="C31" t="n">
-        <v>780.0043500188264</v>
+        <v>964.8923722763628</v>
       </c>
       <c r="D31" t="n">
-        <v>614.1263572203491</v>
+        <v>799.0143794778855</v>
       </c>
       <c r="E31" t="n">
-        <v>444.3683534710863</v>
+        <v>629.2563757286227</v>
       </c>
       <c r="F31" t="n">
-        <v>267.6612994328425</v>
+        <v>452.549321690379</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1362951213261</v>
+        <v>287.0243173788626</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1362951213261</v>
+        <v>147.7113495063056</v>
       </c>
       <c r="I31" t="n">
         <v>102.1362951213261</v>
@@ -6645,28 +6645,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R31" t="n">
-        <v>2783.186833469184</v>
+        <v>2764.748782151796</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.203694087656</v>
+        <v>2606.662330361715</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.607404133823</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.178018150346</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.222510020776</v>
+        <v>2074.110532278313</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.196105607068</v>
+        <v>1802.084127864604</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.80435094048</v>
+        <v>1556.692373198017</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.384680254589</v>
+        <v>1329.272702512125</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2526.697941259893</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.555468443316</v>
+        <v>2088.555468443315</v>
       </c>
       <c r="D32" t="n">
         <v>1652.64568361776</v>
@@ -6688,10 +6688,10 @@
         <v>1218.870938776055</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0035091852633</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G32" t="n">
-        <v>389.7534168828813</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H32" t="n">
         <v>102.1362951213261</v>
@@ -6700,25 +6700,25 @@
         <v>107.3101658788078</v>
       </c>
       <c r="J32" t="n">
-        <v>554.8544931253731</v>
+        <v>119.5998056724553</v>
       </c>
       <c r="K32" t="n">
-        <v>573.2734774155828</v>
+        <v>972.3690819208429</v>
       </c>
       <c r="L32" t="n">
-        <v>1671.18382239845</v>
+        <v>2070.27942690371</v>
       </c>
       <c r="M32" t="n">
-        <v>2853.657106742759</v>
+        <v>2486.883799305322</v>
       </c>
       <c r="N32" t="n">
-        <v>4005.224949661437</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O32" t="n">
-        <v>4892.105999911842</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P32" t="n">
-        <v>4912.928286712841</v>
+        <v>4366.429500754246</v>
       </c>
       <c r="Q32" t="n">
         <v>4928.56495693498</v>
@@ -6779,25 +6779,25 @@
         <v>130.8673959016151</v>
       </c>
       <c r="J33" t="n">
-        <v>138.1870211702503</v>
+        <v>462.7453461364626</v>
       </c>
       <c r="K33" t="n">
-        <v>831.4309466774851</v>
+        <v>1000.300931191258</v>
       </c>
       <c r="L33" t="n">
-        <v>1557.86165381311</v>
+        <v>1017.122715181035</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.491882296888</v>
+        <v>1036.752943664813</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.641664517064</v>
+        <v>1056.902725884989</v>
       </c>
       <c r="O33" t="n">
-        <v>1616.074778669037</v>
+        <v>1075.335840036962</v>
       </c>
       <c r="P33" t="n">
-        <v>1630.868977868046</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q33" t="n">
         <v>1640.758508243533</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>859.0246978096607</v>
+        <v>1050.843316528648</v>
       </c>
       <c r="C34" t="n">
-        <v>686.4629862928856</v>
+        <v>878.2816050118728</v>
       </c>
       <c r="D34" t="n">
-        <v>520.5849934944083</v>
+        <v>712.4036122133955</v>
       </c>
       <c r="E34" t="n">
-        <v>504.8233266932159</v>
+        <v>542.6456084641327</v>
       </c>
       <c r="F34" t="n">
-        <v>328.1162726549721</v>
+        <v>365.9385544258889</v>
       </c>
       <c r="G34" t="n">
-        <v>328.1162726549721</v>
+        <v>200.4135501143725</v>
       </c>
       <c r="H34" t="n">
-        <v>188.8033047824151</v>
+        <v>102.1362951213261</v>
       </c>
       <c r="I34" t="n">
         <v>102.1362951213261</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.697941259892</v>
+        <v>2526.697941259893</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.555468443315</v>
+        <v>2088.555468443316</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.645683617759</v>
+        <v>1652.64568361776</v>
       </c>
       <c r="E35" t="n">
         <v>1218.870938776055</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0035091852628</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G35" t="n">
-        <v>389.753416882881</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I35" t="n">
         <v>107.3101658788078</v>
@@ -6940,49 +6940,49 @@
         <v>554.8544931253731</v>
       </c>
       <c r="K35" t="n">
-        <v>573.2734774155828</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L35" t="n">
-        <v>596.1238561455908</v>
+        <v>1430.474148103769</v>
       </c>
       <c r="M35" t="n">
-        <v>1778.5971404899</v>
+        <v>1455.899597237527</v>
       </c>
       <c r="N35" t="n">
-        <v>2512.720658787552</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.297339119851</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P35" t="n">
-        <v>4366.429500754245</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q35" t="n">
-        <v>4928.564956934979</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.814756066306</v>
+        <v>5106.814756066307</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.529486406987</v>
+        <v>5026.529486406988</v>
       </c>
       <c r="T35" t="n">
-        <v>4807.108987078011</v>
+        <v>4807.108987078012</v>
       </c>
       <c r="U35" t="n">
-        <v>4547.898503520975</v>
+        <v>4547.898503520976</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.281553454802</v>
+        <v>4185.281553454803</v>
       </c>
       <c r="W35" t="n">
-        <v>3780.426098865835</v>
+        <v>3780.426098865836</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.283635445146</v>
+        <v>3361.283635445147</v>
       </c>
       <c r="Y35" t="n">
-        <v>2952.997511744799</v>
+        <v>2952.9975117448</v>
       </c>
     </row>
     <row r="36">
@@ -6998,10 +6998,10 @@
         <v>501.0091003621691</v>
       </c>
       <c r="D36" t="n">
-        <v>405.9188115087223</v>
+        <v>405.9188115087224</v>
       </c>
       <c r="E36" t="n">
-        <v>311.798396835676</v>
+        <v>311.7983968356761</v>
       </c>
       <c r="F36" t="n">
         <v>228.4145584518377</v>
@@ -7010,31 +7010,31 @@
         <v>143.1085160916253</v>
       </c>
       <c r="H36" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I36" t="n">
-        <v>104.8037227411574</v>
+        <v>130.8673959016151</v>
       </c>
       <c r="J36" t="n">
-        <v>436.6816729760051</v>
+        <v>462.7453461364627</v>
       </c>
       <c r="K36" t="n">
-        <v>449.1920784128624</v>
+        <v>1000.300931191258</v>
       </c>
       <c r="L36" t="n">
-        <v>466.0138624026395</v>
+        <v>1017.122715181035</v>
       </c>
       <c r="M36" t="n">
-        <v>485.6440908864174</v>
+        <v>1036.752943664813</v>
       </c>
       <c r="N36" t="n">
-        <v>505.793873106593</v>
+        <v>1056.902725884989</v>
       </c>
       <c r="O36" t="n">
-        <v>524.2269872585663</v>
+        <v>1075.335840036962</v>
       </c>
       <c r="P36" t="n">
-        <v>1358.744352936773</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q36" t="n">
         <v>1640.758508243533</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.546039069247</v>
+        <v>1145.98020593923</v>
       </c>
       <c r="C37" t="n">
-        <v>1005.984327552472</v>
+        <v>973.4184944224552</v>
       </c>
       <c r="D37" t="n">
-        <v>840.106334753995</v>
+        <v>807.5405016239779</v>
       </c>
       <c r="E37" t="n">
-        <v>670.3483310047322</v>
+        <v>670.3483310047324</v>
       </c>
       <c r="F37" t="n">
         <v>493.6412769664885</v>
@@ -7092,13 +7092,13 @@
         <v>188.8033047824151</v>
       </c>
       <c r="I37" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="J37" t="n">
         <v>193.3080779523821</v>
       </c>
       <c r="K37" t="n">
-        <v>475.6127596260197</v>
+        <v>475.6127596260198</v>
       </c>
       <c r="L37" t="n">
         <v>903.4792140101248</v>
@@ -7119,28 +7119,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R37" t="n">
-        <v>2783.186833469184</v>
+        <v>2764.748782151796</v>
       </c>
       <c r="S37" t="n">
-        <v>2625.100381679104</v>
+        <v>2606.662330361715</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.50409172527</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="U37" t="n">
-        <v>2101.074705741793</v>
+        <v>2082.636654424405</v>
       </c>
       <c r="V37" t="n">
-        <v>2101.074705741793</v>
+        <v>2082.636654424405</v>
       </c>
       <c r="W37" t="n">
-        <v>1843.176083140714</v>
+        <v>1810.610250010697</v>
       </c>
       <c r="X37" t="n">
-        <v>1597.784328474126</v>
+        <v>1565.218495344109</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.364657788235</v>
+        <v>1337.798824658217</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2088.555468443315</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.645683617759</v>
+        <v>1652.64568361776</v>
       </c>
       <c r="E38" t="n">
         <v>1218.870938776055</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0035091852628</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G38" t="n">
-        <v>389.7534168828806</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H38" t="n">
         <v>102.1362951213262</v>
@@ -7177,19 +7177,19 @@
         <v>554.8544931253731</v>
       </c>
       <c r="K38" t="n">
-        <v>573.2734774155828</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L38" t="n">
-        <v>1158.859198094873</v>
+        <v>2505.534114356628</v>
       </c>
       <c r="M38" t="n">
-        <v>2341.332482439182</v>
+        <v>2530.959563490386</v>
       </c>
       <c r="N38" t="n">
-        <v>3492.90032535786</v>
+        <v>2556.796422972617</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.297339119852</v>
+        <v>3561.373103304915</v>
       </c>
       <c r="P38" t="n">
         <v>4366.429500754247</v>
@@ -7207,19 +7207,19 @@
         <v>4807.108987078011</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.898503520975</v>
+        <v>4547.898503520976</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.281553454802</v>
+        <v>4185.281553454803</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.426098865835</v>
+        <v>3780.426098865836</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.283635445146</v>
+        <v>3361.283635445147</v>
       </c>
       <c r="Y38" t="n">
-        <v>2952.997511744799</v>
+        <v>2952.9975117448</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>104.8037227411575</v>
       </c>
       <c r="J39" t="n">
-        <v>436.6816729760051</v>
+        <v>307.0570056840232</v>
       </c>
       <c r="K39" t="n">
-        <v>449.1920784128625</v>
+        <v>1000.300931191258</v>
       </c>
       <c r="L39" t="n">
-        <v>466.0138624026396</v>
+        <v>1017.122715181035</v>
       </c>
       <c r="M39" t="n">
-        <v>485.6440908864174</v>
+        <v>1036.752943664813</v>
       </c>
       <c r="N39" t="n">
-        <v>505.7938731065931</v>
+        <v>1056.902725884989</v>
       </c>
       <c r="O39" t="n">
-        <v>524.2269872585664</v>
+        <v>1075.335840036962</v>
       </c>
       <c r="P39" t="n">
-        <v>1207.30281733031</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q39" t="n">
-        <v>1757.931286337872</v>
+        <v>1640.758508243533</v>
       </c>
       <c r="R39" t="n">
         <v>1762.741490845685</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.5660615356014</v>
+        <v>859.0246978096607</v>
       </c>
       <c r="C40" t="n">
-        <v>780.0043500188264</v>
+        <v>836.2263238032097</v>
       </c>
       <c r="D40" t="n">
-        <v>614.1263572203491</v>
+        <v>670.3483310047324</v>
       </c>
       <c r="E40" t="n">
-        <v>444.3683534710864</v>
+        <v>670.3483310047324</v>
       </c>
       <c r="F40" t="n">
-        <v>267.6612994328426</v>
+        <v>493.6412769664885</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1362951213262</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1362951213262</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I40" t="n">
         <v>102.1362951213262</v>
@@ -7335,7 +7335,7 @@
         <v>193.3080779523821</v>
       </c>
       <c r="K40" t="n">
-        <v>475.6127596260197</v>
+        <v>475.6127596260198</v>
       </c>
       <c r="L40" t="n">
         <v>903.4792140101248</v>
@@ -7356,28 +7356,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R40" t="n">
-        <v>2783.186833469184</v>
+        <v>2764.748782151796</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.203694087656</v>
+        <v>2606.662330361715</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.607404133823</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.178018150346</v>
+        <v>2082.636654424405</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.222510020776</v>
+        <v>1795.681146294836</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.196105607068</v>
+        <v>1523.654741881127</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.80435094048</v>
+        <v>1278.26298721454</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.384680254589</v>
+        <v>1050.843316528648</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.64568361776</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.870938776056</v>
+        <v>1218.870938776055</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0035091852633</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G41" t="n">
-        <v>389.753416882881</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H41" t="n">
         <v>102.1362951213262</v>
@@ -7423,22 +7423,22 @@
         <v>1455.899597237527</v>
       </c>
       <c r="N41" t="n">
-        <v>2607.467440156204</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O41" t="n">
-        <v>3612.044120488503</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P41" t="n">
-        <v>4461.176282122898</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q41" t="n">
-        <v>5023.311738303632</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R41" t="n">
         <v>5106.814756066307</v>
       </c>
       <c r="S41" t="n">
-        <v>5026.529486406987</v>
+        <v>5026.529486406988</v>
       </c>
       <c r="T41" t="n">
         <v>4807.108987078012</v>
@@ -7493,25 +7493,25 @@
         <v>462.7453461364627</v>
       </c>
       <c r="K42" t="n">
-        <v>838.4894814384749</v>
+        <v>1000.300931191258</v>
       </c>
       <c r="L42" t="n">
-        <v>855.311265428252</v>
+        <v>1017.122715181035</v>
       </c>
       <c r="M42" t="n">
-        <v>874.9414939120298</v>
+        <v>1036.752943664813</v>
       </c>
       <c r="N42" t="n">
-        <v>895.0912761322054</v>
+        <v>1056.902725884989</v>
       </c>
       <c r="O42" t="n">
-        <v>913.5243902841788</v>
+        <v>1075.335840036962</v>
       </c>
       <c r="P42" t="n">
-        <v>1748.041755962385</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.931286337872</v>
+        <v>1640.758508243533</v>
       </c>
       <c r="R42" t="n">
         <v>1762.741490845685</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.5660615356014</v>
+        <v>1005.984327552472</v>
       </c>
       <c r="C43" t="n">
-        <v>780.0043500188264</v>
+        <v>1005.984327552472</v>
       </c>
       <c r="D43" t="n">
-        <v>614.1263572203491</v>
+        <v>840.106334753995</v>
       </c>
       <c r="E43" t="n">
-        <v>444.3683534710864</v>
+        <v>670.3483310047324</v>
       </c>
       <c r="F43" t="n">
-        <v>267.6612994328426</v>
+        <v>493.6412769664885</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1362951213262</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1362951213262</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I43" t="n">
         <v>102.1362951213262</v>
@@ -7593,28 +7593,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R43" t="n">
-        <v>2783.186833469184</v>
+        <v>2764.748782151796</v>
       </c>
       <c r="S43" t="n">
-        <v>2625.100381679104</v>
+        <v>2606.662330361715</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.607404133823</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.178018150346</v>
+        <v>2082.636654424405</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.222510020776</v>
+        <v>1795.681146294836</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.196105607068</v>
+        <v>1523.654741881127</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.80435094048</v>
+        <v>1278.26298721454</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.384680254589</v>
+        <v>1050.843316528648</v>
       </c>
     </row>
     <row r="44">
@@ -7648,37 +7648,37 @@
         <v>107.3101658788078</v>
       </c>
       <c r="J44" t="n">
-        <v>554.8544931253731</v>
+        <v>119.5998056724553</v>
       </c>
       <c r="K44" t="n">
-        <v>1407.623769373761</v>
+        <v>972.3690819208429</v>
       </c>
       <c r="L44" t="n">
-        <v>2505.534114356628</v>
+        <v>2070.27942690371</v>
       </c>
       <c r="M44" t="n">
-        <v>3688.007398700936</v>
+        <v>2486.883799305323</v>
       </c>
       <c r="N44" t="n">
-        <v>3713.844258183167</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.24127194516</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P44" t="n">
-        <v>4587.373433579555</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q44" t="n">
-        <v>5097.719021688037</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R44" t="n">
         <v>5106.814756066307</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.529486406987</v>
+        <v>5026.529486406988</v>
       </c>
       <c r="T44" t="n">
-        <v>4807.108987078011</v>
+        <v>4807.108987078012</v>
       </c>
       <c r="U44" t="n">
         <v>4547.898503520976</v>
@@ -7730,22 +7730,22 @@
         <v>462.7453461364627</v>
       </c>
       <c r="K45" t="n">
-        <v>586.4968210122297</v>
+        <v>1000.300931191258</v>
       </c>
       <c r="L45" t="n">
-        <v>1557.86165381311</v>
+        <v>1017.122715181035</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.491882296888</v>
+        <v>1036.752943664813</v>
       </c>
       <c r="N45" t="n">
-        <v>1597.641664517064</v>
+        <v>1056.902725884989</v>
       </c>
       <c r="O45" t="n">
-        <v>1616.074778669037</v>
+        <v>1075.335840036962</v>
       </c>
       <c r="P45" t="n">
-        <v>1630.868977868046</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q45" t="n">
         <v>1640.758508243533</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.5660615356014</v>
+        <v>859.0246978096607</v>
       </c>
       <c r="C46" t="n">
-        <v>780.0043500188264</v>
+        <v>686.4629862928856</v>
       </c>
       <c r="D46" t="n">
-        <v>614.1263572203491</v>
+        <v>520.5849934944083</v>
       </c>
       <c r="E46" t="n">
-        <v>444.3683534710864</v>
+        <v>504.8233266932159</v>
       </c>
       <c r="F46" t="n">
-        <v>267.6612994328426</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1362951213262</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1362951213262</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I46" t="n">
         <v>102.1362951213262</v>
@@ -7830,28 +7830,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R46" t="n">
-        <v>2783.186833469184</v>
+        <v>2764.748782151796</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.203694087656</v>
+        <v>2606.662330361715</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.607404133823</v>
+        <v>2361.066040407882</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.178018150346</v>
+        <v>2082.636654424405</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.222510020776</v>
+        <v>1795.681146294836</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.196105607068</v>
+        <v>1523.654741881127</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.80435094048</v>
+        <v>1278.26298721454</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.384680254589</v>
+        <v>1050.843316528648</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -8388,13 +8388,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>205.6028768698566</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>851.8708352536357</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.009850098972</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>340.0597402757987</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>530.3486662807453</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>926.8948403753561</v>
       </c>
       <c r="P14" t="n">
-        <v>129.6496720839614</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>530.3486662807453</v>
       </c>
       <c r="Q15" t="n">
-        <v>388.9399981612487</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>248.5464159301164</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,28 +9403,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>779.5924417772461</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>372.7907572301042</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>222.2282005203019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1208.485048345035</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>557.5469044675046</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>851.8708352536348</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>56.50910228829255</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>530.3486662807453</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>1041.398183906865</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>491.6294162869517</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>530.3486662807452</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>491.6294162869506</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>395.1302255230844</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>395.1302255230844</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>871.1959964529428</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10427,13 +10427,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L33" t="n">
-        <v>716.7766900463116</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10588,16 +10588,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>715.4410695105271</v>
+        <v>1041.398183906865</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>274.8733585164373</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10825,22 +10825,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>568.4195373225076</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>792.1556673215487</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>196.9026845194247</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>675.0319503765</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1041.398183906865</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>75.15887210546043</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>366.9027574395504</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,22 +11305,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>395.1302255230853</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>499.7059776629731</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>112.3647166049593</v>
+        <v>530.3486662807454</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>55.58580478465147</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.50558727218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>159.8205405748108</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.80033956447805</v>
+        <v>40.68103572334841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>74.35227928446682</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6450921236423</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>152.4563735785896</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8697542684012</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.6253557507155</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>32.24017479871705</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>13.98650399450267</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>148.2657041352208</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>74.35227928446682</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.4900334453835</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>74.35227928446676</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>152.4563735785896</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8697542684012</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.35227928446682</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>512751.2125759561</v>
+        <v>512751.212575956</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512751.212575956</v>
+        <v>512751.2125759561</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512751.212575956</v>
+        <v>512751.2125759561</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="D2" t="n">
         <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>536147.319890409</v>
+        <v>536147.3198904089</v>
       </c>
       <c r="F2" t="n">
         <v>536147.3198904089</v>
       </c>
       <c r="G2" t="n">
-        <v>536147.3198904089</v>
+        <v>536147.319890409</v>
       </c>
       <c r="H2" t="n">
-        <v>536147.3198904088</v>
+        <v>536147.319890409</v>
       </c>
       <c r="I2" t="n">
-        <v>536147.3198904085</v>
+        <v>536147.3198904087</v>
       </c>
       <c r="J2" t="n">
-        <v>528555.4928220805</v>
+        <v>528555.4928220806</v>
       </c>
       <c r="K2" t="n">
-        <v>528555.4928220805</v>
+        <v>528555.4928220806</v>
       </c>
       <c r="L2" t="n">
         <v>528555.4928220806</v>
       </c>
       <c r="M2" t="n">
-        <v>528555.4928220806</v>
+        <v>528555.4928220807</v>
       </c>
       <c r="N2" t="n">
         <v>528555.4928220806</v>
       </c>
       <c r="O2" t="n">
+        <v>528555.4928220807</v>
+      </c>
+      <c r="P2" t="n">
         <v>528555.4928220806</v>
-      </c>
-      <c r="P2" t="n">
-        <v>528555.4928220807</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>200495.2107147771</v>
+        <v>200495.2107147772</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>224357.4126279202</v>
       </c>
       <c r="C4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="D4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="E4" t="n">
         <v>126530.6708334945</v>
       </c>
       <c r="F4" t="n">
-        <v>126530.6708334945</v>
+        <v>126530.6708334944</v>
       </c>
       <c r="G4" t="n">
         <v>126530.6708334944</v>
@@ -26441,7 +26441,7 @@
         <v>126530.6708334944</v>
       </c>
       <c r="J4" t="n">
-        <v>117142.361563502</v>
+        <v>117142.3615635021</v>
       </c>
       <c r="K4" t="n">
         <v>117142.3615635021</v>
@@ -26450,7 +26450,7 @@
         <v>117142.3615635021</v>
       </c>
       <c r="M4" t="n">
-        <v>117142.361563502</v>
+        <v>117142.3615635021</v>
       </c>
       <c r="N4" t="n">
         <v>117142.3615635021</v>
@@ -26478,19 +26478,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>76621.96309590536</v>
+        <v>76621.96309590535</v>
       </c>
       <c r="F5" t="n">
         <v>76621.96309590535</v>
       </c>
       <c r="G5" t="n">
-        <v>76621.96309590535</v>
+        <v>76621.96309590533</v>
       </c>
       <c r="H5" t="n">
-        <v>76621.96309590535</v>
+        <v>76621.96309590533</v>
       </c>
       <c r="I5" t="n">
-        <v>76621.96309590535</v>
+        <v>76621.96309590533</v>
       </c>
       <c r="J5" t="n">
         <v>78416.72483700699</v>
@@ -26502,7 +26502,7 @@
         <v>78416.72483700697</v>
       </c>
       <c r="M5" t="n">
-        <v>78416.72483700696</v>
+        <v>78416.72483700699</v>
       </c>
       <c r="N5" t="n">
         <v>78416.72483700699</v>
@@ -26530,40 +26530,40 @@
         <v>252365.1191252657</v>
       </c>
       <c r="E6" t="n">
-        <v>52931.49400197406</v>
+        <v>52931.49400197403</v>
       </c>
       <c r="F6" t="n">
         <v>332994.6859610091</v>
       </c>
       <c r="G6" t="n">
-        <v>332994.6859610091</v>
+        <v>332994.6859610092</v>
       </c>
       <c r="H6" t="n">
-        <v>332994.6859610091</v>
+        <v>332994.6859610093</v>
       </c>
       <c r="I6" t="n">
-        <v>332994.6859610088</v>
+        <v>332994.6859610089</v>
       </c>
       <c r="J6" t="n">
-        <v>209458.2659044089</v>
+        <v>209439.2863367382</v>
       </c>
       <c r="K6" t="n">
-        <v>332996.4064215715</v>
+        <v>332977.4268539008</v>
       </c>
       <c r="L6" t="n">
-        <v>332996.4064215716</v>
+        <v>332977.4268539008</v>
       </c>
       <c r="M6" t="n">
-        <v>132501.1957067946</v>
+        <v>132482.2161391236</v>
       </c>
       <c r="N6" t="n">
-        <v>332996.4064215715</v>
+        <v>332977.4268539007</v>
       </c>
       <c r="O6" t="n">
-        <v>332996.4064215716</v>
+        <v>332977.4268539008</v>
       </c>
       <c r="P6" t="n">
-        <v>332996.4064215717</v>
+        <v>332977.4268539007</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F2" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26755,10 +26755,10 @@
         <v>36.38259379812413</v>
       </c>
       <c r="H3" t="n">
-        <v>36.38259379812411</v>
+        <v>36.38259379812413</v>
       </c>
       <c r="I3" t="n">
-        <v>36.38259379812411</v>
+        <v>36.38259379812413</v>
       </c>
       <c r="J3" t="n">
         <v>36.38259379812413</v>
@@ -26822,7 +26822,7 @@
         <v>1276.703689016577</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.703689016576</v>
+        <v>1276.703689016577</v>
       </c>
       <c r="N4" t="n">
         <v>1276.703689016577</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>804.5425061988456</v>
+        <v>804.5425061988457</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>804.5425061988453</v>
+        <v>804.5425061988459</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>804.5425061988456</v>
+        <v>804.5425061988457</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>104.675330873648</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>111.1117530257921</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.89479186996505</v>
+        <v>120.9836449801877</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.1405214419547</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27678,10 +27678,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>97.42050141645262</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>123.1564116798719</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>186.5410055805434</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.1405214419547</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,10 +27861,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>108.9993815687711</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>99.02658805868036</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28070,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>191.3678862223525</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="J13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="K13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="L13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="M13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="N13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="O13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="P13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="R13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="S13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="J16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="K16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="L16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="M16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="N16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="O16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="P16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="R16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="S16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.26826817250226</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="J19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="K19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="L19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="M19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="N19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="O19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="P19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="R19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="S19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250122</v>
       </c>
       <c r="F20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.26826817250046</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="J22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="K22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="L22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="M22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="N22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="O22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="P22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="R22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="S22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250122</v>
       </c>
       <c r="F23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U23" t="n">
-        <v>13.26826817250071</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="C25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="D25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="E25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="F25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="G25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="H25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="I25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="J25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="K25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="L25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="M25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="N25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="O25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="P25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="R25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="S25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="T25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="U25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="V25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="W25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="X25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250221</v>
       </c>
     </row>
     <row r="26">
@@ -32466,46 +32466,46 @@
         <v>0.1462616836105491</v>
       </c>
       <c r="H20" t="n">
-        <v>1.497902467276536</v>
+        <v>1.497902467276537</v>
       </c>
       <c r="I20" t="n">
-        <v>5.638753557395698</v>
+        <v>5.638753557395701</v>
       </c>
       <c r="J20" t="n">
-        <v>12.41377756934085</v>
+        <v>12.41377756934086</v>
       </c>
       <c r="K20" t="n">
-        <v>18.60503463657539</v>
+        <v>18.6050346365754</v>
       </c>
       <c r="L20" t="n">
-        <v>23.08119063637174</v>
+        <v>23.08119063637175</v>
       </c>
       <c r="M20" t="n">
-        <v>25.68227185228084</v>
+        <v>25.68227185228086</v>
       </c>
       <c r="N20" t="n">
-        <v>26.09783786083932</v>
+        <v>26.09783786083933</v>
       </c>
       <c r="O20" t="n">
-        <v>24.64344824443692</v>
+        <v>24.64344824443693</v>
       </c>
       <c r="P20" t="n">
-        <v>21.03261293030148</v>
+        <v>21.0326129303015</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.79461638599869</v>
+        <v>15.7946163859987</v>
       </c>
       <c r="R20" t="n">
-        <v>9.18761048310116</v>
+        <v>9.187610483101166</v>
       </c>
       <c r="S20" t="n">
-        <v>3.33293811527539</v>
+        <v>3.332938115275392</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6402605200051789</v>
+        <v>0.6402605200051792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01170093468884392</v>
+        <v>0.01170093468884393</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07825689986766317</v>
+        <v>0.07825689986766322</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7557969013534839</v>
+        <v>0.7557969013534843</v>
       </c>
       <c r="I21" t="n">
-        <v>2.694371333162965</v>
+        <v>2.694371333162966</v>
       </c>
       <c r="J21" t="n">
-        <v>7.393560877409354</v>
+        <v>7.393560877409358</v>
       </c>
       <c r="K21" t="n">
         <v>12.63677316854279</v>
       </c>
       <c r="L21" t="n">
-        <v>16.99170099977485</v>
+        <v>16.99170099977486</v>
       </c>
       <c r="M21" t="n">
-        <v>19.82851361997763</v>
+        <v>19.82851361997765</v>
       </c>
       <c r="N21" t="n">
-        <v>20.35331537391473</v>
+        <v>20.35331537391474</v>
       </c>
       <c r="O21" t="n">
-        <v>18.61930722421545</v>
+        <v>18.61930722421547</v>
       </c>
       <c r="P21" t="n">
-        <v>14.94363555455403</v>
+        <v>14.94363555455404</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.989424621703812</v>
+        <v>9.989424621703819</v>
       </c>
       <c r="R21" t="n">
-        <v>4.858792432134387</v>
+        <v>4.85879243213439</v>
       </c>
       <c r="S21" t="n">
-        <v>1.453587591840146</v>
+        <v>1.453587591840147</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3154302235893966</v>
+        <v>0.3154302235893968</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005148480254451526</v>
+        <v>0.00514848025445153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06560795602940411</v>
+        <v>0.06560795602940415</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5833143726977934</v>
+        <v>0.5833143726977937</v>
       </c>
       <c r="I22" t="n">
-        <v>1.973010168593353</v>
+        <v>1.973010168593355</v>
       </c>
       <c r="J22" t="n">
-        <v>4.638482491278871</v>
+        <v>4.638482491278873</v>
       </c>
       <c r="K22" t="n">
-        <v>7.62245161868895</v>
+        <v>7.622451618688954</v>
       </c>
       <c r="L22" t="n">
-        <v>9.754113753680683</v>
+        <v>9.754113753680688</v>
       </c>
       <c r="M22" t="n">
         <v>10.28434532559105</v>
@@ -32645,25 +32645,25 @@
         <v>10.03980658039055</v>
       </c>
       <c r="O22" t="n">
-        <v>9.273386366774323</v>
+        <v>9.273386366774329</v>
       </c>
       <c r="P22" t="n">
-        <v>7.934984063774473</v>
+        <v>7.934984063774477</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.49377166351674</v>
+        <v>5.493771663516743</v>
       </c>
       <c r="R22" t="n">
-        <v>2.94997227746757</v>
+        <v>2.949972277467571</v>
       </c>
       <c r="S22" t="n">
-        <v>1.143367742803342</v>
+        <v>1.143367742803343</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2803249030347266</v>
+        <v>0.2803249030347268</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003578615783422047</v>
+        <v>0.003578615783422049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>0.1462616836105491</v>
       </c>
       <c r="H23" t="n">
-        <v>1.497902467276536</v>
+        <v>1.497902467276537</v>
       </c>
       <c r="I23" t="n">
-        <v>5.638753557395698</v>
+        <v>5.638753557395701</v>
       </c>
       <c r="J23" t="n">
-        <v>12.41377756934085</v>
+        <v>12.41377756934086</v>
       </c>
       <c r="K23" t="n">
-        <v>18.60503463657539</v>
+        <v>18.6050346365754</v>
       </c>
       <c r="L23" t="n">
-        <v>23.08119063637174</v>
+        <v>23.08119063637175</v>
       </c>
       <c r="M23" t="n">
-        <v>25.68227185228084</v>
+        <v>25.68227185228086</v>
       </c>
       <c r="N23" t="n">
-        <v>26.09783786083932</v>
+        <v>26.09783786083933</v>
       </c>
       <c r="O23" t="n">
-        <v>24.64344824443692</v>
+        <v>24.64344824443693</v>
       </c>
       <c r="P23" t="n">
-        <v>21.03261293030148</v>
+        <v>21.0326129303015</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.79461638599869</v>
+        <v>15.7946163859987</v>
       </c>
       <c r="R23" t="n">
-        <v>9.18761048310116</v>
+        <v>9.187610483101166</v>
       </c>
       <c r="S23" t="n">
-        <v>3.33293811527539</v>
+        <v>3.332938115275392</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6402605200051789</v>
+        <v>0.6402605200051792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01170093468884392</v>
+        <v>0.01170093468884393</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07825689986766317</v>
+        <v>0.07825689986766322</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7557969013534839</v>
+        <v>0.7557969013534843</v>
       </c>
       <c r="I24" t="n">
-        <v>2.694371333162965</v>
+        <v>2.694371333162966</v>
       </c>
       <c r="J24" t="n">
-        <v>7.393560877409354</v>
+        <v>7.393560877409358</v>
       </c>
       <c r="K24" t="n">
         <v>12.63677316854279</v>
       </c>
       <c r="L24" t="n">
-        <v>16.99170099977485</v>
+        <v>16.99170099977486</v>
       </c>
       <c r="M24" t="n">
-        <v>19.82851361997763</v>
+        <v>19.82851361997765</v>
       </c>
       <c r="N24" t="n">
-        <v>20.35331537391473</v>
+        <v>20.35331537391474</v>
       </c>
       <c r="O24" t="n">
-        <v>18.61930722421545</v>
+        <v>18.61930722421547</v>
       </c>
       <c r="P24" t="n">
-        <v>14.94363555455403</v>
+        <v>14.94363555455404</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.989424621703812</v>
+        <v>9.989424621703819</v>
       </c>
       <c r="R24" t="n">
-        <v>4.858792432134387</v>
+        <v>4.85879243213439</v>
       </c>
       <c r="S24" t="n">
-        <v>1.453587591840146</v>
+        <v>1.453587591840147</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3154302235893966</v>
+        <v>0.3154302235893968</v>
       </c>
       <c r="U24" t="n">
-        <v>0.005148480254451526</v>
+        <v>0.00514848025445153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06560795602940411</v>
+        <v>0.06560795602940415</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5833143726977934</v>
+        <v>0.5833143726977937</v>
       </c>
       <c r="I25" t="n">
-        <v>1.973010168593353</v>
+        <v>1.973010168593355</v>
       </c>
       <c r="J25" t="n">
-        <v>4.638482491278871</v>
+        <v>4.638482491278873</v>
       </c>
       <c r="K25" t="n">
-        <v>7.62245161868895</v>
+        <v>7.622451618688954</v>
       </c>
       <c r="L25" t="n">
-        <v>9.754113753680683</v>
+        <v>9.754113753680688</v>
       </c>
       <c r="M25" t="n">
         <v>10.28434532559105</v>
@@ -32882,25 +32882,25 @@
         <v>10.03980658039055</v>
       </c>
       <c r="O25" t="n">
-        <v>9.273386366774323</v>
+        <v>9.273386366774329</v>
       </c>
       <c r="P25" t="n">
-        <v>7.934984063774473</v>
+        <v>7.934984063774477</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.49377166351674</v>
+        <v>5.493771663516743</v>
       </c>
       <c r="R25" t="n">
-        <v>2.94997227746757</v>
+        <v>2.949972277467571</v>
       </c>
       <c r="S25" t="n">
-        <v>1.143367742803342</v>
+        <v>1.143367742803343</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2803249030347266</v>
+        <v>0.2803249030347268</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003578615783422047</v>
+        <v>0.003578615783422049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35108,13 +35108,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>5.226132078264305</v>
       </c>
       <c r="J11" t="n">
-        <v>218.0166544391975</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K11" t="n">
-        <v>861.3831073216037</v>
+        <v>861.3831073216038</v>
       </c>
       <c r="L11" t="n">
-        <v>1109.000348467543</v>
+        <v>23.08119063637173</v>
       </c>
       <c r="M11" t="n">
         <v>25.68227185228079</v>
       </c>
       <c r="N11" t="n">
-        <v>26.09783786083926</v>
+        <v>877.968673114475</v>
       </c>
       <c r="O11" t="n">
         <v>1014.723919527575</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.694371333162962</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J12" t="n">
-        <v>7.393560877409357</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K12" t="n">
         <v>12.63677316854279</v>
       </c>
       <c r="L12" t="n">
-        <v>16.99170099977485</v>
+        <v>16.99170099977488</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.83836371895</v>
+        <v>19.82851361997763</v>
       </c>
       <c r="N12" t="n">
         <v>20.35331537391471</v>
       </c>
       <c r="O12" t="n">
-        <v>358.6790475000141</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P12" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352993</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R12" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415684</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,16 +35570,16 @@
         <v>105.3609781028618</v>
       </c>
       <c r="K13" t="n">
-        <v>298.4245122872878</v>
+        <v>298.4245122872877</v>
       </c>
       <c r="L13" t="n">
-        <v>445.4566059342245</v>
+        <v>445.4566059342243</v>
       </c>
       <c r="M13" t="n">
         <v>487.6777318626519</v>
       </c>
       <c r="N13" t="n">
-        <v>470.0341385484935</v>
+        <v>470.0341385484933</v>
       </c>
       <c r="O13" t="n">
         <v>446.4499870905711</v>
@@ -35646,31 +35646,31 @@
         <v>5.226132078264305</v>
       </c>
       <c r="J14" t="n">
-        <v>452.0649770167328</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K14" t="n">
-        <v>18.6050346365754</v>
+        <v>861.3831073216038</v>
       </c>
       <c r="L14" t="n">
         <v>1109.000348467543</v>
       </c>
       <c r="M14" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N14" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O14" t="n">
-        <v>24.64344824443697</v>
+        <v>951.5382886197931</v>
       </c>
       <c r="P14" t="n">
-        <v>150.682285014263</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q14" t="n">
         <v>567.8135921017511</v>
       </c>
       <c r="R14" t="n">
-        <v>180.0503021528548</v>
+        <v>9.187610483100798</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>29.02131391948377</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J15" t="n">
         <v>335.2302527624723</v>
       </c>
       <c r="K15" t="n">
-        <v>700.2463894012473</v>
+        <v>12.63677316854279</v>
       </c>
       <c r="L15" t="n">
-        <v>16.99170099977482</v>
+        <v>16.99170099977488</v>
       </c>
       <c r="M15" t="n">
-        <v>19.82851361997768</v>
+        <v>19.82851361997763</v>
       </c>
       <c r="N15" t="n">
         <v>20.35331537391471</v>
       </c>
       <c r="O15" t="n">
-        <v>18.61930722421539</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P15" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352993</v>
       </c>
       <c r="Q15" t="n">
-        <v>398.9294227829525</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R15" t="n">
         <v>123.2151339415684</v>
@@ -35810,13 +35810,13 @@
         <v>298.4245122872877</v>
       </c>
       <c r="L16" t="n">
-        <v>445.4566059342245</v>
+        <v>445.4566059342243</v>
       </c>
       <c r="M16" t="n">
         <v>487.6777318626519</v>
       </c>
       <c r="N16" t="n">
-        <v>470.0341385484935</v>
+        <v>470.0341385484933</v>
       </c>
       <c r="O16" t="n">
         <v>446.4499870905711</v>
@@ -35965,7 +35965,7 @@
         <v>335.2302527624723</v>
       </c>
       <c r="K18" t="n">
-        <v>261.1831890986592</v>
+        <v>542.9854394492883</v>
       </c>
       <c r="L18" t="n">
         <v>16.99170099977482</v>
@@ -35977,13 +35977,13 @@
         <v>20.35331537391471</v>
       </c>
       <c r="O18" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421539</v>
       </c>
       <c r="P18" t="n">
-        <v>842.9468340183906</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R18" t="n">
         <v>123.2151339415684</v>
@@ -36047,13 +36047,13 @@
         <v>298.4245122872877</v>
       </c>
       <c r="L19" t="n">
-        <v>445.4566059342243</v>
+        <v>445.4566059342244</v>
       </c>
       <c r="M19" t="n">
-        <v>487.6777318626521</v>
+        <v>487.6777318626519</v>
       </c>
       <c r="N19" t="n">
-        <v>470.0341385484935</v>
+        <v>470.0341385484933</v>
       </c>
       <c r="O19" t="n">
         <v>446.4499870905711</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.226132078264301</v>
+        <v>5.226132078264304</v>
       </c>
       <c r="J20" t="n">
-        <v>452.0649770167327</v>
+        <v>452.0649770167328</v>
       </c>
       <c r="K20" t="n">
-        <v>861.3831073216037</v>
+        <v>798.1974764138215</v>
       </c>
       <c r="L20" t="n">
-        <v>23.08119063637173</v>
+        <v>1109.000348467543</v>
       </c>
       <c r="M20" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N20" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O20" t="n">
-        <v>24.64344824443697</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P20" t="n">
-        <v>393.8233701604058</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q20" t="n">
         <v>567.8135921017511</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0503021528548</v>
+        <v>9.187610483100798</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.694371333162962</v>
+        <v>29.02131391948377</v>
       </c>
       <c r="J21" t="n">
-        <v>7.393560877409357</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K21" t="n">
-        <v>12.63677316854279</v>
+        <v>542.9854394492883</v>
       </c>
       <c r="L21" t="n">
-        <v>16.99170099977486</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M21" t="n">
-        <v>242.0567141402796</v>
+        <v>19.82851361997768</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.83836371895</v>
+        <v>20.35331537391471</v>
       </c>
       <c r="O21" t="n">
         <v>18.61930722421539</v>
@@ -36220,7 +36220,7 @@
         <v>14.94363555455402</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R21" t="n">
         <v>123.2151339415684</v>
@@ -36287,10 +36287,10 @@
         <v>445.4566059342244</v>
       </c>
       <c r="M22" t="n">
-        <v>487.6777318626521</v>
+        <v>487.6777318626519</v>
       </c>
       <c r="N22" t="n">
-        <v>470.0341385484935</v>
+        <v>470.0341385484933</v>
       </c>
       <c r="O22" t="n">
         <v>446.4499870905711</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.226132078264301</v>
+        <v>5.226132078264304</v>
       </c>
       <c r="J23" t="n">
-        <v>452.0649770167327</v>
+        <v>452.0649770167328</v>
       </c>
       <c r="K23" t="n">
-        <v>576.15193910408</v>
+        <v>861.3831073216038</v>
       </c>
       <c r="L23" t="n">
         <v>23.08119063637173</v>
@@ -36369,7 +36369,7 @@
         <v>25.68227185228079</v>
       </c>
       <c r="N23" t="n">
-        <v>1163.199841331998</v>
+        <v>877.9686731144741</v>
       </c>
       <c r="O23" t="n">
         <v>1014.723919527575</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.694371333162962</v>
+        <v>29.02131391948377</v>
       </c>
       <c r="J24" t="n">
-        <v>7.393560877409357</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K24" t="n">
         <v>12.63677316854279</v>
       </c>
       <c r="L24" t="n">
-        <v>16.99170099977486</v>
+        <v>16.99170099977488</v>
       </c>
       <c r="M24" t="n">
-        <v>19.82851361997763</v>
+        <v>19.82851361997768</v>
       </c>
       <c r="N24" t="n">
-        <v>20.35331537391474</v>
+        <v>20.35331537391471</v>
       </c>
       <c r="O24" t="n">
-        <v>75.128409512508</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P24" t="n">
-        <v>842.9468340183906</v>
+        <v>545.2923018352993</v>
       </c>
       <c r="Q24" t="n">
         <v>556.1903727349115</v>
@@ -36524,13 +36524,13 @@
         <v>445.4566059342243</v>
       </c>
       <c r="M25" t="n">
-        <v>487.6777318626521</v>
+        <v>487.6777318626519</v>
       </c>
       <c r="N25" t="n">
         <v>470.0341385484933</v>
       </c>
       <c r="O25" t="n">
-        <v>446.4499870905709</v>
+        <v>446.4499870905711</v>
       </c>
       <c r="P25" t="n">
         <v>372.2203168527835</v>
@@ -36594,31 +36594,31 @@
         <v>5.226132078264305</v>
       </c>
       <c r="J26" t="n">
-        <v>12.41377756934087</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K26" t="n">
-        <v>18.6050346365754</v>
+        <v>861.3831073216036</v>
       </c>
       <c r="L26" t="n">
-        <v>1109.000348467543</v>
+        <v>1064.479374543237</v>
       </c>
       <c r="M26" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N26" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O26" t="n">
         <v>1014.723919527575</v>
       </c>
       <c r="P26" t="n">
-        <v>512.6620292172529</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.79461638599878</v>
+        <v>567.8135921017511</v>
       </c>
       <c r="R26" t="n">
-        <v>9.187610483100798</v>
+        <v>180.0503021528548</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>335.2302527624723</v>
       </c>
       <c r="K27" t="n">
-        <v>12.63677316854279</v>
+        <v>542.9854394492882</v>
       </c>
       <c r="L27" t="n">
-        <v>16.99170099977488</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M27" t="n">
         <v>19.82851361997768</v>
@@ -36688,10 +36688,10 @@
         <v>20.35331537391471</v>
       </c>
       <c r="O27" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421539</v>
       </c>
       <c r="P27" t="n">
-        <v>545.2923018352992</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q27" t="n">
         <v>556.1903727349115</v>
@@ -36834,28 +36834,28 @@
         <v>12.41377756934087</v>
       </c>
       <c r="K29" t="n">
-        <v>510.234450923526</v>
+        <v>861.3831073216037</v>
       </c>
       <c r="L29" t="n">
         <v>1109.000348467543</v>
       </c>
       <c r="M29" t="n">
-        <v>1194.417458933645</v>
+        <v>420.8124973753652</v>
       </c>
       <c r="N29" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O29" t="n">
         <v>1014.723919527575</v>
       </c>
       <c r="P29" t="n">
-        <v>21.03261293030118</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.79461638599878</v>
+        <v>567.8135921017511</v>
       </c>
       <c r="R29" t="n">
-        <v>9.187610483100798</v>
+        <v>180.0503021528548</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>5.226132078264305</v>
       </c>
       <c r="J32" t="n">
-        <v>452.0649770167327</v>
+        <v>12.41377756934087</v>
       </c>
       <c r="K32" t="n">
-        <v>18.6050346365754</v>
+        <v>861.3831073216037</v>
       </c>
       <c r="L32" t="n">
         <v>1109.000348467543</v>
       </c>
       <c r="M32" t="n">
-        <v>1194.417458933645</v>
+        <v>420.8124973753652</v>
       </c>
       <c r="N32" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O32" t="n">
-        <v>895.8394446973798</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P32" t="n">
-        <v>21.03261293030118</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.79461638599878</v>
+        <v>567.8135921017511</v>
       </c>
       <c r="R32" t="n">
         <v>180.0503021528548</v>
@@ -37147,13 +37147,13 @@
         <v>29.02131391948376</v>
       </c>
       <c r="J33" t="n">
-        <v>7.393560877409357</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K33" t="n">
-        <v>700.2463894012473</v>
+        <v>542.9854394492882</v>
       </c>
       <c r="L33" t="n">
-        <v>733.7683910460864</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M33" t="n">
         <v>19.82851361997768</v>
@@ -37168,7 +37168,7 @@
         <v>14.94363555455402</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R33" t="n">
         <v>123.2151339415684</v>
@@ -37308,19 +37308,19 @@
         <v>452.0649770167327</v>
       </c>
       <c r="K35" t="n">
-        <v>18.6050346365754</v>
+        <v>861.3831073216036</v>
       </c>
       <c r="L35" t="n">
         <v>23.08119063637173</v>
       </c>
       <c r="M35" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N35" t="n">
-        <v>741.5389073713663</v>
+        <v>1067.496021767704</v>
       </c>
       <c r="O35" t="n">
-        <v>1014.723919527574</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P35" t="n">
         <v>857.7092541761563</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.694371333162962</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J36" t="n">
         <v>335.2302527624723</v>
       </c>
       <c r="K36" t="n">
-        <v>12.63677316854279</v>
+        <v>542.9854394492882</v>
       </c>
       <c r="L36" t="n">
-        <v>16.99170099977488</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M36" t="n">
-        <v>19.82851361997763</v>
+        <v>19.82851361997768</v>
       </c>
       <c r="N36" t="n">
-        <v>20.35331537391477</v>
+        <v>20.35331537391471</v>
       </c>
       <c r="O36" t="n">
-        <v>18.61930722421545</v>
+        <v>18.61930722421539</v>
       </c>
       <c r="P36" t="n">
-        <v>842.9468340183905</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q36" t="n">
-        <v>284.8627831381411</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R36" t="n">
         <v>123.2151339415684</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.09270993035956</v>
+        <v>92.09270993035955</v>
       </c>
       <c r="K37" t="n">
         <v>285.1562441147855</v>
       </c>
       <c r="L37" t="n">
-        <v>432.1883377617223</v>
+        <v>432.1883377617222</v>
       </c>
       <c r="M37" t="n">
         <v>474.4094636901498</v>
@@ -37545,22 +37545,22 @@
         <v>452.0649770167327</v>
       </c>
       <c r="K38" t="n">
-        <v>18.6050346365754</v>
+        <v>861.3831073216036</v>
       </c>
       <c r="L38" t="n">
-        <v>591.5007279588793</v>
+        <v>1109.000348467543</v>
       </c>
       <c r="M38" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N38" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O38" t="n">
-        <v>24.64344824443697</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P38" t="n">
-        <v>857.7092541761563</v>
+        <v>813.1882802518503</v>
       </c>
       <c r="Q38" t="n">
         <v>567.8135921017511</v>
@@ -37621,31 +37621,31 @@
         <v>2.694371333162962</v>
       </c>
       <c r="J39" t="n">
-        <v>335.2302527624723</v>
+        <v>204.2962453968341</v>
       </c>
       <c r="K39" t="n">
-        <v>12.63677316854279</v>
+        <v>700.2463894012473</v>
       </c>
       <c r="L39" t="n">
-        <v>16.99170099977488</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M39" t="n">
-        <v>19.82851361997763</v>
+        <v>19.82851361997768</v>
       </c>
       <c r="N39" t="n">
-        <v>20.35331537391477</v>
+        <v>20.35331537391471</v>
       </c>
       <c r="O39" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421539</v>
       </c>
       <c r="P39" t="n">
-        <v>689.9755859310541</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q39" t="n">
         <v>556.1903727349115</v>
       </c>
       <c r="R39" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415684</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.09270993035952</v>
+        <v>92.09270993035955</v>
       </c>
       <c r="K40" t="n">
         <v>285.1562441147855</v>
       </c>
       <c r="L40" t="n">
-        <v>432.1883377617223</v>
+        <v>432.1883377617222</v>
       </c>
       <c r="M40" t="n">
         <v>474.4094636901498</v>
@@ -37791,7 +37791,7 @@
         <v>25.68227185228079</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.199841331998</v>
+        <v>1067.496021767704</v>
       </c>
       <c r="O41" t="n">
         <v>1014.723919527575</v>
@@ -37803,7 +37803,7 @@
         <v>567.8135921017511</v>
       </c>
       <c r="R41" t="n">
-        <v>84.34648258856123</v>
+        <v>180.0503021528548</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>335.2302527624723</v>
       </c>
       <c r="K42" t="n">
-        <v>379.5395306080932</v>
+        <v>542.9854394492882</v>
       </c>
       <c r="L42" t="n">
         <v>16.99170099977482</v>
@@ -37873,16 +37873,16 @@
         <v>20.35331537391471</v>
       </c>
       <c r="O42" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421539</v>
       </c>
       <c r="P42" t="n">
-        <v>842.9468340183906</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R42" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415684</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>5.226132078264305</v>
       </c>
       <c r="J44" t="n">
-        <v>452.0649770167327</v>
+        <v>12.41377756934087</v>
       </c>
       <c r="K44" t="n">
-        <v>861.3831073216036</v>
+        <v>861.3831073216037</v>
       </c>
       <c r="L44" t="n">
         <v>1109.000348467543</v>
       </c>
       <c r="M44" t="n">
-        <v>1194.417458933645</v>
+        <v>420.8124973753661</v>
       </c>
       <c r="N44" t="n">
         <v>26.09783786083926</v>
       </c>
       <c r="O44" t="n">
-        <v>24.64344824443697</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P44" t="n">
-        <v>857.7092541761567</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q44" t="n">
-        <v>515.5005940489718</v>
+        <v>567.8135921017511</v>
       </c>
       <c r="R44" t="n">
-        <v>9.187610483100798</v>
+        <v>180.0503021528548</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>335.2302527624723</v>
       </c>
       <c r="K45" t="n">
-        <v>125.001489773502</v>
+        <v>542.9854394492882</v>
       </c>
       <c r="L45" t="n">
-        <v>981.1765987887686</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M45" t="n">
         <v>19.82851361997768</v>
@@ -38116,7 +38116,7 @@
         <v>14.94363555455402</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R45" t="n">
         <v>123.2151339415684</v>
